--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,90 +40,96 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>stupid</t>
   </si>
   <si>
     <t>guilty</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>frightening</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>destroying</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -133,9 +139,6 @@
     <t>dark</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -148,15 +151,12 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -172,22 +172,34 @@
     <t>good</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>first</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
     <t>documentary</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -548,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -667,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -767,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9038461538461539</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8636363636363636</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7777777777777778</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,16 +1050,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.6206896551724138</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.5333333333333333</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.52</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.3157894736842105</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.2222222222222222</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -1309,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.1463414634146341</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6470588235294118</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.06739526411657559</v>
+        <v>0.06466302367941712</v>
       </c>
       <c r="L18">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,7 +1429,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1435,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19">
         <v>0.02120141342756184</v>
@@ -1467,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5833333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,7 +1497,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20">
+        <v>0.01481481481481482</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1493,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5507246376811594</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C21">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1511,7 +1547,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>656</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1519,13 +1579,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1538,6 +1598,30 @@
       </c>
       <c r="H22">
         <v>6</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22">
+        <v>0.005184331797235023</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
+      <c r="M22">
+        <v>9</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1727</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1545,13 +1629,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4782608695652174</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1563,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1571,7 +1655,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1589,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1597,13 +1681,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4117647058823529</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1615,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1623,13 +1707,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4042553191489361</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1641,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1649,13 +1733,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1667,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1675,13 +1759,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3928571428571428</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1693,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1701,13 +1785,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.375</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1719,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1727,13 +1811,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1745,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1753,13 +1837,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1771,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1779,13 +1863,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3076923076923077</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1797,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1805,13 +1889,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2142857142857143</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1823,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1831,13 +1915,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2142857142857143</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1849,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1857,24 +1941,50 @@
         <v>40</v>
       </c>
       <c r="B35">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
         <v>0.1153846153846154</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>9</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>69</v>
       </c>
     </row>
